--- a/biology/Histoire de la zoologie et de la botanique/Philipp_Bruch/Philipp_Bruch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Philipp_Bruch/Philipp_Bruch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Bruch (né le 11 février 1781 à Deux-Ponts; mort le 11 février 1847) est un pharmacien et un bryologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Bruch est né à Deux-Ponts, dans le Palatinat-Deux-Ponts. Son père était le pharmacien Johann Christian Bruch. Philipp Bruch a d'abord effectué un apprentissage dans une pharmacie avant de poursuivre ses études à Marbourg et à Paris. À l'âge de 21 ans il reprit, après la mort de son père, la pharmacie paternelle à Deux-Ponts. Sa passion pour la botanique l'amena à rencontrer le scientifique Wilhelm Daniel Joseph Koch, qui était en train de rédiger une description de la flore allemande et suisse. Il se consacra particulièrement à l'étude des mousses et collabora avec Wilhelm Philipp Schimper et Wilhelm Theodor Gümbel (de) à la réalisation du traité en 6 volumes Bryologia europaea, une monographie sur les mousses européennes. Nous lui devons une des premières descriptions des mousses du genre Orthotrichum. Le genre Bruchia (en) a été nommé d'après lui.
 </t>
